--- a/Test1/deal1.xlsx
+++ b/Test1/deal1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="8280" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="8280" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="净人数求和" sheetId="3" r:id="rId3"/>
     <sheet name="相邻时间段人数差" sheetId="4" r:id="rId4"/>
     <sheet name="每个时间段的总净人数" sheetId="5" r:id="rId5"/>
+    <sheet name="车上人数" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -2817,7 +2818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A18"/>
     </sheetView>
   </sheetViews>
@@ -2917,4 +2918,115 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Test1/deal1.xlsx
+++ b/Test1/deal1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="8280" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="8280" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2818,7 +2818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A18"/>
     </sheetView>
   </sheetViews>
@@ -2924,7 +2924,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A19"/>
     </sheetView>
   </sheetViews>

--- a/Test1/deal1.xlsx
+++ b/Test1/deal1.xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="8280" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="8280" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="净人数" sheetId="2" r:id="rId2"/>
-    <sheet name="净人数求和" sheetId="3" r:id="rId3"/>
-    <sheet name="相邻时间段人数差" sheetId="4" r:id="rId4"/>
-    <sheet name="每个时间段的总净人数" sheetId="5" r:id="rId5"/>
-    <sheet name="车上人数" sheetId="6" r:id="rId6"/>
+    <sheet name="A" sheetId="2" r:id="rId2"/>
+    <sheet name="B" sheetId="3" r:id="rId3"/>
+    <sheet name="C" sheetId="4" r:id="rId4"/>
+    <sheet name="D" sheetId="5" r:id="rId5"/>
+    <sheet name="E" sheetId="6" r:id="rId6"/>
+    <sheet name="F" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -2818,7 +2819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A18"/>
     </sheetView>
   </sheetViews>
@@ -2922,107 +2923,910 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A19"/>
+      <selection sqref="A1:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0</v>
+        <v>570</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>570</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1738</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1542</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1169</v>
+        <v>751</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>751</v>
+        <v>485</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>485</v>
+        <v>578</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>578</v>
+        <v>584</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>584</v>
+        <v>777</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>777</v>
+        <v>750</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>750</v>
+        <v>703</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>703</v>
+        <v>865</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>865</v>
+        <v>657</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>657</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>355</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>238</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>0</v>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:N18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>371</v>
+      </c>
+      <c r="B1">
+        <v>52</v>
+      </c>
+      <c r="C1">
+        <v>43</v>
+      </c>
+      <c r="D1">
+        <v>30</v>
+      </c>
+      <c r="E1">
+        <v>56</v>
+      </c>
+      <c r="F1">
+        <v>42</v>
+      </c>
+      <c r="G1">
+        <v>3</v>
+      </c>
+      <c r="H1">
+        <v>2</v>
+      </c>
+      <c r="I1">
+        <v>53</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>21</v>
+      </c>
+      <c r="L1">
+        <v>20</v>
+      </c>
+      <c r="M1">
+        <v>-74</v>
+      </c>
+      <c r="N1">
+        <v>-57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2361</v>
+      </c>
+      <c r="B2">
+        <v>329</v>
+      </c>
+      <c r="C2">
+        <v>271</v>
+      </c>
+      <c r="D2">
+        <v>122</v>
+      </c>
+      <c r="E2">
+        <v>406</v>
+      </c>
+      <c r="F2">
+        <v>48</v>
+      </c>
+      <c r="G2">
+        <v>-224</v>
+      </c>
+      <c r="H2">
+        <v>-176</v>
+      </c>
+      <c r="I2">
+        <v>156</v>
+      </c>
+      <c r="J2">
+        <v>-24</v>
+      </c>
+      <c r="K2">
+        <v>29</v>
+      </c>
+      <c r="L2">
+        <v>39</v>
+      </c>
+      <c r="M2">
+        <v>-927</v>
+      </c>
+      <c r="N2">
+        <v>-672</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>5987</v>
+      </c>
+      <c r="B3">
+        <v>758</v>
+      </c>
+      <c r="C3">
+        <v>572</v>
+      </c>
+      <c r="D3">
+        <v>297</v>
+      </c>
+      <c r="E3">
+        <v>893</v>
+      </c>
+      <c r="F3">
+        <v>-142</v>
+      </c>
+      <c r="G3">
+        <v>-798</v>
+      </c>
+      <c r="H3">
+        <v>-1011</v>
+      </c>
+      <c r="I3">
+        <v>259</v>
+      </c>
+      <c r="J3">
+        <v>-234</v>
+      </c>
+      <c r="K3">
+        <v>-66</v>
+      </c>
+      <c r="L3">
+        <v>-143</v>
+      </c>
+      <c r="M3">
+        <v>-2699</v>
+      </c>
+      <c r="N3">
+        <v>-2131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>8051</v>
+      </c>
+      <c r="B4">
+        <v>974</v>
+      </c>
+      <c r="C4">
+        <v>754</v>
+      </c>
+      <c r="D4">
+        <v>363</v>
+      </c>
+      <c r="E4">
+        <v>1070</v>
+      </c>
+      <c r="F4">
+        <v>-227</v>
+      </c>
+      <c r="G4">
+        <v>-1148</v>
+      </c>
+      <c r="H4">
+        <v>-1496</v>
+      </c>
+      <c r="I4">
+        <v>258</v>
+      </c>
+      <c r="J4">
+        <v>-322</v>
+      </c>
+      <c r="K4">
+        <v>-130</v>
+      </c>
+      <c r="L4">
+        <v>-317</v>
+      </c>
+      <c r="M4">
+        <v>-3771</v>
+      </c>
+      <c r="N4">
+        <v>-2890</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>9237</v>
+      </c>
+      <c r="B5">
+        <v>1098</v>
+      </c>
+      <c r="C5">
+        <v>845</v>
+      </c>
+      <c r="D5">
+        <v>390</v>
+      </c>
+      <c r="E5">
+        <v>1170</v>
+      </c>
+      <c r="F5">
+        <v>-330</v>
+      </c>
+      <c r="G5">
+        <v>-1387</v>
+      </c>
+      <c r="H5">
+        <v>-1723</v>
+      </c>
+      <c r="I5">
+        <v>275</v>
+      </c>
+      <c r="J5">
+        <v>-380</v>
+      </c>
+      <c r="K5">
+        <v>-174</v>
+      </c>
+      <c r="L5">
+        <v>-388</v>
+      </c>
+      <c r="M5">
+        <v>-4509</v>
+      </c>
+      <c r="N5">
+        <v>-3373</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>10160</v>
+      </c>
+      <c r="B6">
+        <v>1197</v>
+      </c>
+      <c r="C6">
+        <v>910</v>
+      </c>
+      <c r="D6">
+        <v>417</v>
+      </c>
+      <c r="E6">
+        <v>1249</v>
+      </c>
+      <c r="F6">
+        <v>-415</v>
+      </c>
+      <c r="G6">
+        <v>-1548</v>
+      </c>
+      <c r="H6">
+        <v>-1953</v>
+      </c>
+      <c r="I6">
+        <v>298</v>
+      </c>
+      <c r="J6">
+        <v>-410</v>
+      </c>
+      <c r="K6">
+        <v>-204</v>
+      </c>
+      <c r="L6">
+        <v>-443</v>
+      </c>
+      <c r="M6">
+        <v>-5015</v>
+      </c>
+      <c r="N6">
+        <v>-3758</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>11117</v>
+      </c>
+      <c r="B7">
+        <v>1324</v>
+      </c>
+      <c r="C7">
+        <v>1009</v>
+      </c>
+      <c r="D7">
+        <v>466</v>
+      </c>
+      <c r="E7">
+        <v>1372</v>
+      </c>
+      <c r="F7">
+        <v>-472</v>
+      </c>
+      <c r="G7">
+        <v>-1704</v>
+      </c>
+      <c r="H7">
+        <v>-2120</v>
+      </c>
+      <c r="I7">
+        <v>362</v>
+      </c>
+      <c r="J7">
+        <v>-455</v>
+      </c>
+      <c r="K7">
+        <v>-225</v>
+      </c>
+      <c r="L7">
+        <v>-479</v>
+      </c>
+      <c r="M7">
+        <v>-5519</v>
+      </c>
+      <c r="N7">
+        <v>-4098</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>11990</v>
+      </c>
+      <c r="B8">
+        <v>1419</v>
+      </c>
+      <c r="C8">
+        <v>1100</v>
+      </c>
+      <c r="D8">
+        <v>503</v>
+      </c>
+      <c r="E8">
+        <v>1476</v>
+      </c>
+      <c r="F8">
+        <v>-531</v>
+      </c>
+      <c r="G8">
+        <v>-1831</v>
+      </c>
+      <c r="H8">
+        <v>-2277</v>
+      </c>
+      <c r="I8">
+        <v>419</v>
+      </c>
+      <c r="J8">
+        <v>-501</v>
+      </c>
+      <c r="K8">
+        <v>-256</v>
+      </c>
+      <c r="L8">
+        <v>-515</v>
+      </c>
+      <c r="M8">
+        <v>-5981</v>
+      </c>
+      <c r="N8">
+        <v>-4431</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>12769</v>
+      </c>
+      <c r="B9">
+        <v>1521</v>
+      </c>
+      <c r="C9">
+        <v>1162</v>
+      </c>
+      <c r="D9">
+        <v>517</v>
+      </c>
+      <c r="E9">
+        <v>1559</v>
+      </c>
+      <c r="F9">
+        <v>-567</v>
+      </c>
+      <c r="G9">
+        <v>-1925</v>
+      </c>
+      <c r="H9">
+        <v>-2363</v>
+      </c>
+      <c r="I9">
+        <v>455</v>
+      </c>
+      <c r="J9">
+        <v>-520</v>
+      </c>
+      <c r="K9">
+        <v>-261</v>
+      </c>
+      <c r="L9">
+        <v>-534</v>
+      </c>
+      <c r="M9">
+        <v>-6342</v>
+      </c>
+      <c r="N9">
+        <v>-4694</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>13394</v>
+      </c>
+      <c r="B10">
+        <v>1589</v>
+      </c>
+      <c r="C10">
+        <v>1231</v>
+      </c>
+      <c r="D10">
+        <v>552</v>
+      </c>
+      <c r="E10">
+        <v>1643</v>
+      </c>
+      <c r="F10">
+        <v>-576</v>
+      </c>
+      <c r="G10">
+        <v>-2011</v>
+      </c>
+      <c r="H10">
+        <v>-2517</v>
+      </c>
+      <c r="I10">
+        <v>486</v>
+      </c>
+      <c r="J10">
+        <v>-551</v>
+      </c>
+      <c r="K10">
+        <v>-283</v>
+      </c>
+      <c r="L10">
+        <v>-569</v>
+      </c>
+      <c r="M10">
+        <v>-6705</v>
+      </c>
+      <c r="N10">
+        <v>-4933</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>14029</v>
+      </c>
+      <c r="B11">
+        <v>1677</v>
+      </c>
+      <c r="C11">
+        <v>1290</v>
+      </c>
+      <c r="D11">
+        <v>577</v>
+      </c>
+      <c r="E11">
+        <v>1707</v>
+      </c>
+      <c r="F11">
+        <v>-605</v>
+      </c>
+      <c r="G11">
+        <v>-2127</v>
+      </c>
+      <c r="H11">
+        <v>-2671</v>
+      </c>
+      <c r="I11">
+        <v>507</v>
+      </c>
+      <c r="J11">
+        <v>-582</v>
+      </c>
+      <c r="K11">
+        <v>-305</v>
+      </c>
+      <c r="L11">
+        <v>-594</v>
+      </c>
+      <c r="M11">
+        <v>-7038</v>
+      </c>
+      <c r="N11">
+        <v>-5162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>15522</v>
+      </c>
+      <c r="B12">
+        <v>1896</v>
+      </c>
+      <c r="C12">
+        <v>1445</v>
+      </c>
+      <c r="D12">
+        <v>641</v>
+      </c>
+      <c r="E12">
+        <v>1909</v>
+      </c>
+      <c r="F12">
+        <v>-651</v>
+      </c>
+      <c r="G12">
+        <v>-2358</v>
+      </c>
+      <c r="H12">
+        <v>-2974</v>
+      </c>
+      <c r="I12">
+        <v>562</v>
+      </c>
+      <c r="J12">
+        <v>-619</v>
+      </c>
+      <c r="K12">
+        <v>-352</v>
+      </c>
+      <c r="L12">
+        <v>-648</v>
+      </c>
+      <c r="M12">
+        <v>-7789</v>
+      </c>
+      <c r="N12">
+        <v>-5719</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>17533</v>
+      </c>
+      <c r="B13">
+        <v>2165</v>
+      </c>
+      <c r="C13">
+        <v>1638</v>
+      </c>
+      <c r="D13">
+        <v>700</v>
+      </c>
+      <c r="E13">
+        <v>2149</v>
+      </c>
+      <c r="F13">
+        <v>-866</v>
+      </c>
+      <c r="G13">
+        <v>-2635</v>
+      </c>
+      <c r="H13">
+        <v>-3345</v>
+      </c>
+      <c r="I13">
+        <v>680</v>
+      </c>
+      <c r="J13">
+        <v>-732</v>
+      </c>
+      <c r="K13">
+        <v>-395</v>
+      </c>
+      <c r="L13">
+        <v>-767</v>
+      </c>
+      <c r="M13">
+        <v>-8956</v>
+      </c>
+      <c r="N13">
+        <v>-6512</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>18224</v>
+      </c>
+      <c r="B14">
+        <v>2244</v>
+      </c>
+      <c r="C14">
+        <v>1697</v>
+      </c>
+      <c r="D14">
+        <v>709</v>
+      </c>
+      <c r="E14">
+        <v>2208</v>
+      </c>
+      <c r="F14">
+        <v>-938</v>
+      </c>
+      <c r="G14">
+        <v>-2758</v>
+      </c>
+      <c r="H14">
+        <v>-3534</v>
+      </c>
+      <c r="I14">
+        <v>724</v>
+      </c>
+      <c r="J14">
+        <v>-768</v>
+      </c>
+      <c r="K14">
+        <v>-433</v>
+      </c>
+      <c r="L14">
+        <v>-810</v>
+      </c>
+      <c r="M14">
+        <v>-9362</v>
+      </c>
+      <c r="N14">
+        <v>-6848</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>18574</v>
+      </c>
+      <c r="B15">
+        <v>2286</v>
+      </c>
+      <c r="C15">
+        <v>1729</v>
+      </c>
+      <c r="D15">
+        <v>721</v>
+      </c>
+      <c r="E15">
+        <v>2236</v>
+      </c>
+      <c r="F15">
+        <v>-969</v>
+      </c>
+      <c r="G15">
+        <v>-2816</v>
+      </c>
+      <c r="H15">
+        <v>-3642</v>
+      </c>
+      <c r="I15">
+        <v>730</v>
+      </c>
+      <c r="J15">
+        <v>-789</v>
+      </c>
+      <c r="K15">
+        <v>-449</v>
+      </c>
+      <c r="L15">
+        <v>-829</v>
+      </c>
+      <c r="M15">
+        <v>-9555</v>
+      </c>
+      <c r="N15">
+        <v>-6987</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>18878</v>
+      </c>
+      <c r="B16">
+        <v>2320</v>
+      </c>
+      <c r="C16">
+        <v>1755</v>
+      </c>
+      <c r="D16">
+        <v>733</v>
+      </c>
+      <c r="E16">
+        <v>2270</v>
+      </c>
+      <c r="F16">
+        <v>-974</v>
+      </c>
+      <c r="G16">
+        <v>-2860</v>
+      </c>
+      <c r="H16">
+        <v>-3708</v>
+      </c>
+      <c r="I16">
+        <v>731</v>
+      </c>
+      <c r="J16">
+        <v>-801</v>
+      </c>
+      <c r="K16">
+        <v>-457</v>
+      </c>
+      <c r="L16">
+        <v>-839</v>
+      </c>
+      <c r="M16">
+        <v>-9706</v>
+      </c>
+      <c r="N16">
+        <v>-7104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>19087</v>
+      </c>
+      <c r="B17">
+        <v>2343</v>
+      </c>
+      <c r="C17">
+        <v>1773</v>
+      </c>
+      <c r="D17">
+        <v>738</v>
+      </c>
+      <c r="E17">
+        <v>2290</v>
+      </c>
+      <c r="F17">
+        <v>-997</v>
+      </c>
+      <c r="G17">
+        <v>-2894</v>
+      </c>
+      <c r="H17">
+        <v>-3786</v>
+      </c>
+      <c r="I17">
+        <v>721</v>
+      </c>
+      <c r="J17">
+        <v>-815</v>
+      </c>
+      <c r="K17">
+        <v>-469</v>
+      </c>
+      <c r="L17">
+        <v>-853</v>
+      </c>
+      <c r="M17">
+        <v>-9828</v>
+      </c>
+      <c r="N17">
+        <v>-7196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>19106</v>
+      </c>
+      <c r="B18">
+        <v>2343</v>
+      </c>
+      <c r="C18">
+        <v>1773</v>
+      </c>
+      <c r="D18">
+        <v>735</v>
+      </c>
+      <c r="E18">
+        <v>2287</v>
+      </c>
+      <c r="F18">
+        <v>-1010</v>
+      </c>
+      <c r="G18">
+        <v>-2908</v>
+      </c>
+      <c r="H18">
+        <v>-3808</v>
+      </c>
+      <c r="I18">
+        <v>714</v>
+      </c>
+      <c r="J18">
+        <v>-821</v>
+      </c>
+      <c r="K18">
+        <v>-475</v>
+      </c>
+      <c r="L18">
+        <v>-860</v>
+      </c>
+      <c r="M18">
+        <v>-9859</v>
+      </c>
+      <c r="N18">
+        <v>-7217</v>
       </c>
     </row>
   </sheetData>
